--- a/results/experiments/exp2/220530_results_res-fps.xlsx
+++ b/results/experiments/exp2/220530_results_res-fps.xlsx
@@ -1,31 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\PycharmProjects\yolov5\results\experiments\exp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2E4DDF56-91F8-4061-A1B6-4FDF69470855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BB39E7-9438-4A29-BBF3-E1AD052A56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="899" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="220512_res_speed" sheetId="1" r:id="rId1"/>
-    <sheet name="p5_models" sheetId="2" r:id="rId2"/>
-    <sheet name="p6_models" sheetId="3" r:id="rId3"/>
+    <sheet name="220531_res_speed" sheetId="4" r:id="rId1"/>
+    <sheet name="p5_models" sheetId="5" r:id="rId2"/>
+    <sheet name="220512_res_speed_old" sheetId="1" r:id="rId3"/>
+    <sheet name="p5_models_old" sheetId="2" r:id="rId4"/>
+    <sheet name="p6_models_old" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="49" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="25">
   <si>
     <t>model</t>
   </si>
@@ -98,11 +101,14 @@
   <si>
     <t>fps_target_p6</t>
   </si>
+  <si>
+    <t>fps_target</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,16 +646,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -684,7 +681,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -696,6 +693,1588 @@
   </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[220530_results_res-fps.xlsx]p5_models!PivotTable1</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_models!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.56312783384906562"/>
+                  <c:y val="-0.61610984943271685"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_models!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_models!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.08487937992599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.727817822269103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.597089669589799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.1506336869581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5266554937871799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A029-4C53-B16B-9192B558BA13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_models!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.56128903537500774"/>
+                  <c:y val="-0.37247697109051503"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_models!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_models!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71.959699834028399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.556354191837599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5102554137734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2304341890096193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5376159134009502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A029-4C53-B16B-9192B558BA13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_models!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.56192523068957545"/>
+                  <c:y val="-0.27456503571782681"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_models!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_models!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41.912066731213201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.679607417666199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4780171395026596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0405919474061998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7247715981241698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A029-4C53-B16B-9192B558BA13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_models!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5l</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.55905670507004523"/>
+                  <c:y val="-0.15464001246464809"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-NL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_models!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_models!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.947833965104099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0517208127145796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9505020407322902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9139090863711701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4292487022798199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A029-4C53-B16B-9192B558BA13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_models!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fps_target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_models!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_models!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-A029-4C53-B16B-9192B558BA13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="491604304"/>
+        <c:axId val="491600560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491604304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491600560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491600560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491604304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[220530_results_res-fps.xlsx]p5_models_old!PivotTable1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -762,7 +2341,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -818,7 +2397,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -874,7 +2453,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -928,6 +2507,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:noFill/>
             <a:round/>
@@ -1047,7 +2629,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>p5_models!$B$3:$B$4</c:f>
+              <c:f>p5_models_old!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1121,7 +2703,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>p5_models!$A$5:$A$8</c:f>
+              <c:f>p5_models_old!$A$5:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1141,7 +2723,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>p5_models!$B$5:$B$8</c:f>
+              <c:f>p5_models_old!$B$5:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1172,7 +2754,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>p5_models!$C$3:$C$4</c:f>
+              <c:f>p5_models_old!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1246,7 +2828,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>p5_models!$A$5:$A$8</c:f>
+              <c:f>p5_models_old!$A$5:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1266,7 +2848,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>p5_models!$C$5:$C$8</c:f>
+              <c:f>p5_models_old!$C$5:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1297,7 +2879,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>p5_models!$D$3:$D$4</c:f>
+              <c:f>p5_models_old!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1371,7 +2953,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>p5_models!$A$5:$A$8</c:f>
+              <c:f>p5_models_old!$A$5:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1391,7 +2973,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>p5_models!$D$5:$D$8</c:f>
+              <c:f>p5_models_old!$D$5:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1422,7 +3004,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>p5_models!$E$3:$E$4</c:f>
+              <c:f>p5_models_old!$E$3:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1496,7 +3078,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>p5_models!$A$5:$A$8</c:f>
+              <c:f>p5_models_old!$A$5:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1516,7 +3098,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>p5_models!$E$5:$E$8</c:f>
+              <c:f>p5_models_old!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1547,7 +3129,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>p5_models!$F$3:$F$4</c:f>
+              <c:f>p5_models_old!$F$3:$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1571,7 +3153,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>p5_models!$A$5:$A$8</c:f>
+              <c:f>p5_models_old!$A$5:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1591,7 +3173,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>p5_models!$F$5:$F$8</c:f>
+              <c:f>p5_models_old!$F$5:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1835,10 +3417,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1849,7 +3431,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[220530_results_res-fps.xlsx]p6_models!PivotTable2</c:name>
+    <c:name>[220530_results_res-fps.xlsx]p6_models_old!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -1916,7 +3498,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1972,7 +3554,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2028,7 +3610,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2082,6 +3664,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2203,7 +3788,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>p6_models!$B$3:$B$4</c:f>
+              <c:f>p6_models_old!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2277,7 +3862,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>p6_models!$A$5:$A$9</c:f>
+              <c:f>p6_models_old!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2300,7 +3885,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>p6_models!$B$5:$B$9</c:f>
+              <c:f>p6_models_old!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2334,7 +3919,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>p6_models!$C$3:$C$4</c:f>
+              <c:f>p6_models_old!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2408,7 +3993,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>p6_models!$A$5:$A$9</c:f>
+              <c:f>p6_models_old!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2431,7 +4016,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>p6_models!$C$5:$C$9</c:f>
+              <c:f>p6_models_old!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2465,7 +4050,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>p6_models!$D$3:$D$4</c:f>
+              <c:f>p6_models_old!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2539,7 +4124,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>p6_models!$A$5:$A$9</c:f>
+              <c:f>p6_models_old!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2562,7 +4147,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>p6_models!$D$5:$D$9</c:f>
+              <c:f>p6_models_old!$D$5:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2596,7 +4181,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>p6_models!$E$3:$E$4</c:f>
+              <c:f>p6_models_old!$E$3:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2670,7 +4255,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>p6_models!$A$5:$A$9</c:f>
+              <c:f>p6_models_old!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2693,7 +4278,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>p6_models!$E$5:$E$9</c:f>
+              <c:f>p6_models_old!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2727,7 +4312,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>p6_models!$F$3:$F$4</c:f>
+              <c:f>p6_models_old!$F$3:$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2751,7 +4336,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>p6_models!$A$5:$A$9</c:f>
+              <c:f>p6_models_old!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2774,7 +4359,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>p6_models!$F$5:$F$9</c:f>
+              <c:f>p6_models_old!$F$5:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3062,6 +4647,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4133,7 +5758,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>118109</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A6E2C8-82B1-4E4E-9EB5-1175D4139DCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4174,7 +6358,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4216,9 +6400,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Thomas" refreshedDate="44711.497110763892" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="45">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas" refreshedDate="44711.497110763892" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF31000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J46" sheet="220512_res_speed"/>
+    <worksheetSource ref="A1:J46" sheet="220512_res_speed_old"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="model" numFmtId="0">
@@ -4267,6 +6451,68 @@
     </cacheField>
     <cacheField name="FPS" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4180128462414301" maxValue="89.080419478133507"/>
+    </cacheField>
+    <cacheField name="experiment_time" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="110" maxValue="3673"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas" refreshedDate="44712.357124305556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="45" xr:uid="{4A7D3CFE-BAB7-41A7-9759-5324B31DC1A2}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J46" sheet="220531_res_speed"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="model" numFmtId="0">
+      <sharedItems count="10">
+        <s v="yolov5n6"/>
+        <s v="yolov5s6"/>
+        <s v="yolov5m6"/>
+        <s v="yolov5l6"/>
+        <s v="yolov5n"/>
+        <s v="yolov5s"/>
+        <s v="yolov5m"/>
+        <s v="yolov5l"/>
+        <s v="fps_target"/>
+        <s v="fps_target_p6" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="precision" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="resolution" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="256" maxValue="1024" count="5">
+        <n v="256"/>
+        <n v="448"/>
+        <n v="640"/>
+        <n v="832"/>
+        <n v="1024"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="prep_time" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.24362783432006799" maxValue="6.6518336772918696"/>
+    </cacheField>
+    <cacheField name="NMS_time" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.84046387672424305" maxValue="5.20313158035278"/>
+    </cacheField>
+    <cacheField name="latency" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1.0841831207275301" maxValue="11.639840555191"/>
+    </cacheField>
+    <cacheField name="inference_time" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="8.8229302883148204" maxValue="693.91960301399195"/>
+    </cacheField>
+    <cacheField name="total_time" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="9.9915192604064895" maxValue="705.21222896575898"/>
+    </cacheField>
+    <cacheField name="FPS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.4180128462414301" maxValue="100.08487937992599"/>
     </cacheField>
     <cacheField name="experiment_time" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="110" maxValue="3673"/>
@@ -4825,8 +7071,770 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
+  <r>
+    <x v="0"/>
+    <s v="fp16"/>
+    <x v="0"/>
+    <n v="0.243719244003295"/>
+    <n v="0.84046387672424305"/>
+    <n v="1.0841831207275301"/>
+    <n v="10.141628408432"/>
+    <n v="11.2258115291595"/>
+    <n v="89.080419478133507"/>
+    <n v="110"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="fp16"/>
+    <x v="1"/>
+    <n v="1.0932781219482399"/>
+    <n v="1.0182653903961101"/>
+    <n v="2.11154351234436"/>
+    <n v="19.1679630756378"/>
+    <n v="21.279506587982102"/>
+    <n v="46.993570826720202"/>
+    <n v="167"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="fp16"/>
+    <x v="2"/>
+    <n v="2.24342513084411"/>
+    <n v="1.9454683780670099"/>
+    <n v="4.1888935089111303"/>
+    <n v="35.837070798873903"/>
+    <n v="40.025964307785003"/>
+    <n v="24.9837828343213"/>
+    <n v="264"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="fp16"/>
+    <x v="3"/>
+    <n v="3.5901308059692298"/>
+    <n v="2.50783638954162"/>
+    <n v="6.0979671955108596"/>
+    <n v="68.195323085784906"/>
+    <n v="74.293290281295697"/>
+    <n v="13.460165732513801"/>
+    <n v="450"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="fp16"/>
+    <x v="4"/>
+    <n v="5.5809366703033403"/>
+    <n v="4.0299361705779999"/>
+    <n v="9.6108728408813402"/>
+    <n v="105.97678842544499"/>
+    <n v="115.58766126632599"/>
+    <n v="8.6514424554009093"/>
+    <n v="666"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="fp16"/>
+    <x v="0"/>
+    <n v="0.29055061340332"/>
+    <n v="0.90285959243774405"/>
+    <n v="1.1934102058410601"/>
+    <n v="14.572713375091499"/>
+    <n v="15.7661235809326"/>
+    <n v="63.427131905105"/>
+    <n v="131"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="fp16"/>
+    <x v="1"/>
+    <n v="1.2744545936584399"/>
+    <n v="1.30874481201171"/>
+    <n v="2.5831994056701602"/>
+    <n v="31.5469968318939"/>
+    <n v="34.130196237564"/>
+    <n v="29.299567838387802"/>
+    <n v="231"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="fp16"/>
+    <x v="2"/>
+    <n v="2.4620860099792399"/>
+    <n v="2.1359723567962599"/>
+    <n v="4.5980583667755104"/>
+    <n v="62.192293739318799"/>
+    <n v="66.790352106094304"/>
+    <n v="14.9722223115627"/>
+    <n v="405"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="fp16"/>
+    <x v="3"/>
+    <n v="4.1840089797973601"/>
+    <n v="3.00836119651794"/>
+    <n v="7.1923701763152996"/>
+    <n v="111.868339681625"/>
+    <n v="119.06070985794"/>
+    <n v="8.3990764139838099"/>
+    <n v="688"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="fp16"/>
+    <x v="4"/>
+    <n v="5.7086902141570999"/>
+    <n v="4.8048207283020004"/>
+    <n v="10.513510942459099"/>
+    <n v="169.59895315170201"/>
+    <n v="180.112464094161"/>
+    <n v="5.55208660893787"/>
+    <n v="1008"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="fp16"/>
+    <x v="0"/>
+    <n v="0.30926418304443298"/>
+    <n v="1.0183655738830499"/>
+    <n v="1.32762975692749"/>
+    <n v="26.237813854217499"/>
+    <n v="27.565443611145"/>
+    <n v="36.2773048062135"/>
+    <n v="199"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="fp16"/>
+    <x v="1"/>
+    <n v="1.6060508728027301"/>
+    <n v="1.6209608078002899"/>
+    <n v="3.2270116806030198"/>
+    <n v="63.785854578018103"/>
+    <n v="67.012866258621202"/>
+    <n v="14.922507509837301"/>
+    <n v="418"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="fp16"/>
+    <x v="2"/>
+    <n v="3.0997354984283398"/>
+    <n v="3.3723194122314402"/>
+    <n v="6.4720549106597902"/>
+    <n v="134.69117631912201"/>
+    <n v="141.16323122978201"/>
+    <n v="7.0839976620556602"/>
+    <n v="810"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="fp16"/>
+    <x v="3"/>
+    <n v="4.7852356910705502"/>
+    <n v="3.5309593200683498"/>
+    <n v="8.3161950111389107"/>
+    <n v="241.885690689086"/>
+    <n v="250.20188570022501"/>
+    <n v="3.99677243519311"/>
+    <n v="1378"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="fp16"/>
+    <x v="4"/>
+    <n v="6.6518336772918696"/>
+    <n v="4.9474659442901601"/>
+    <n v="11.599299621582"/>
+    <n v="360.04673557281399"/>
+    <n v="371.64603519439697"/>
+    <n v="2.6907323240430299"/>
+    <n v="1996"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="fp16"/>
+    <x v="0"/>
+    <n v="0.29044275283813398"/>
+    <n v="0.990237665176391"/>
+    <n v="1.2806804180145199"/>
+    <n v="47.174611663818297"/>
+    <n v="48.455292081832802"/>
+    <n v="20.637580685947899"/>
+    <n v="322"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="fp16"/>
+    <x v="1"/>
+    <n v="1.7154144287109301"/>
+    <n v="2.0364978790283201"/>
+    <n v="3.75191230773925"/>
+    <n v="123.788621759414"/>
+    <n v="127.540534067153"/>
+    <n v="7.8406446022365701"/>
+    <n v="739"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="fp16"/>
+    <x v="2"/>
+    <n v="3.6031491279601999"/>
+    <n v="3.1653121948242098"/>
+    <n v="6.7684613227844199"/>
+    <n v="258.89829387664702"/>
+    <n v="265.66675519943198"/>
+    <n v="3.76411417849144"/>
+    <n v="1439"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="fp16"/>
+    <x v="3"/>
+    <n v="4.3996299743652303"/>
+    <n v="2.9113382816314699"/>
+    <n v="7.3109682559967002"/>
+    <n v="538.37924771308894"/>
+    <n v="545.69021596908499"/>
+    <n v="1.8325415606437201"/>
+    <n v="2850"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="fp16"/>
+    <x v="4"/>
+    <n v="6.6425714015960597"/>
+    <n v="4.6500545501708901"/>
+    <n v="11.292625951766899"/>
+    <n v="693.91960301399195"/>
+    <n v="705.21222896575898"/>
+    <n v="1.4180128462414301"/>
+    <n v="3673"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="fp16"/>
+    <x v="0"/>
+    <n v="0.28435211181640602"/>
+    <n v="0.88423686027526804"/>
+    <n v="1.16858897209167"/>
+    <n v="8.8229302883148204"/>
+    <n v="9.9915192604064895"/>
+    <n v="100.08487937992599"/>
+    <n v="111"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="fp16"/>
+    <x v="1"/>
+    <n v="1.4649578094482401"/>
+    <n v="1.1462200641632001"/>
+    <n v="2.6111778736114499"/>
+    <n v="19.746273231506301"/>
+    <n v="22.3574511051178"/>
+    <n v="44.727817822269103"/>
+    <n v="171"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="fp16"/>
+    <x v="2"/>
+    <n v="2.2872521877288801"/>
+    <n v="2.1111271381378098"/>
+    <n v="4.3983793258666903"/>
+    <n v="36.256836938858001"/>
+    <n v="40.6552162647247"/>
+    <n v="24.597089669589799"/>
+    <n v="274"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="fp16"/>
+    <x v="3"/>
+    <n v="3.5556863307952802"/>
+    <n v="2.4927475452422998"/>
+    <n v="6.0484338760375902"/>
+    <n v="64.619779443740796"/>
+    <n v="70.668213319778403"/>
+    <n v="14.1506336869581"/>
+    <n v="428"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="fp16"/>
+    <x v="4"/>
+    <n v="6.0026729106902996"/>
+    <n v="3.6429636001586898"/>
+    <n v="9.6456365108489894"/>
+    <n v="107.633641481399"/>
+    <n v="117.279277992248"/>
+    <n v="8.5266554937871799"/>
+    <n v="669"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="fp16"/>
+    <x v="0"/>
+    <n v="0.28743772506713799"/>
+    <n v="1.0841579437255799"/>
+    <n v="1.37159566879272"/>
+    <n v="12.525071525573701"/>
+    <n v="13.896667194366399"/>
+    <n v="71.959699834028399"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="fp16"/>
+    <x v="1"/>
+    <n v="1.29347004890441"/>
+    <n v="1.35553112030029"/>
+    <n v="2.64900116920471"/>
+    <n v="30.077416181564299"/>
+    <n v="32.726417350768997"/>
+    <n v="30.556354191837599"/>
+    <n v="221"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="fp16"/>
+    <x v="2"/>
+    <n v="2.47765002250671"/>
+    <n v="2.0394322872161799"/>
+    <n v="4.5170823097229"/>
+    <n v="59.956388521194398"/>
+    <n v="64.473470830917293"/>
+    <n v="15.5102554137734"/>
+    <n v="389"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="fp16"/>
+    <x v="3"/>
+    <n v="3.82142806053161"/>
+    <n v="2.7616916656494102"/>
+    <n v="6.5831197261810299"/>
+    <n v="114.917153167724"/>
+    <n v="121.50027289390501"/>
+    <n v="8.2304341890096193"/>
+    <n v="696"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="fp16"/>
+    <x v="4"/>
+    <n v="6.4493868827819796"/>
+    <n v="4.4896602630615199"/>
+    <n v="10.939047145843499"/>
+    <n v="169.644080257415"/>
+    <n v="180.583127403259"/>
+    <n v="5.5376159134009502"/>
+    <n v="1005"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="fp16"/>
+    <x v="0"/>
+    <n v="0.24362783432006799"/>
+    <n v="1.1244657516479399"/>
+    <n v="1.3680935859680099"/>
+    <n v="22.491383600234901"/>
+    <n v="23.859477186203002"/>
+    <n v="41.912066731213201"/>
+    <n v="180"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="fp16"/>
+    <x v="1"/>
+    <n v="1.4779429435729901"/>
+    <n v="1.64294590950012"/>
+    <n v="3.12088885307312"/>
+    <n v="60.656218147277798"/>
+    <n v="63.777107000350902"/>
+    <n v="15.679607417666199"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="fp16"/>
+    <x v="2"/>
+    <n v="3.1056784152984598"/>
+    <n v="3.0265405654907198"/>
+    <n v="6.1322189807891796"/>
+    <n v="127.593069601058"/>
+    <n v="133.72528858184799"/>
+    <n v="7.4780171395026596"/>
+    <n v="765"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="fp16"/>
+    <x v="3"/>
+    <n v="4.4465175628662097"/>
+    <n v="4.3325817584991402"/>
+    <n v="8.7790993213653508"/>
+    <n v="238.70939073562599"/>
+    <n v="247.488490056991"/>
+    <n v="4.0405919474061998"/>
+    <n v="1356"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="fp16"/>
+    <x v="4"/>
+    <n v="6.3679111003875697"/>
+    <n v="4.3135559082031198"/>
+    <n v="10.6814670085906"/>
+    <n v="356.321771240234"/>
+    <n v="367.00323824882503"/>
+    <n v="2.7247715981241698"/>
+    <n v="1969"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="fp16"/>
+    <x v="0"/>
+    <n v="0.28430161476135202"/>
+    <n v="0.974680948257446"/>
+    <n v="1.2589825630187901"/>
+    <n v="40.498447418212798"/>
+    <n v="41.757429981231603"/>
+    <n v="23.947833965104099"/>
+    <n v="283"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="fp16"/>
+    <x v="1"/>
+    <n v="1.7499016284942599"/>
+    <n v="1.9617949485778801"/>
+    <n v="3.7116965770721402"/>
+    <n v="120.485356855392"/>
+    <n v="124.197053432464"/>
+    <n v="8.0517208127145796"/>
+    <n v="717"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="fp16"/>
+    <x v="2"/>
+    <n v="2.9312722206115698"/>
+    <n v="2.6065609931945799"/>
+    <n v="5.5378332138061497"/>
+    <n v="247.59455089568999"/>
+    <n v="253.132384109497"/>
+    <n v="3.9505020407322902"/>
+    <n v="1368"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="fp16"/>
+    <x v="3"/>
+    <n v="4.6494043827056801"/>
+    <n v="3.37904477119445"/>
+    <n v="8.0284491539001408"/>
+    <n v="514.46240849494905"/>
+    <n v="522.49085764884899"/>
+    <n v="1.9139090863711701"/>
+    <n v="2726"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="fp16"/>
+    <x v="4"/>
+    <n v="6.4367089748382504"/>
+    <n v="5.20313158035278"/>
+    <n v="11.639840555191"/>
+    <n v="688.02845258712705"/>
+    <n v="699.66829314231802"/>
+    <n v="1.4292487022798199"/>
+    <n v="3634"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="30"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8D284D4-77B2-4DD8-9D27-2F46C8C0DDC9}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="9"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of FPS" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="4" selected="0">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="9">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -4907,7 +7915,7 @@
     <dataField name="Sum of FPS" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="7">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4" selected="0">
@@ -4994,8 +8002,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -5079,7 +8087,7 @@
     <dataField name="Sum of FPS" fld="8" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="8">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5558,24 +8566,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC48E676-1515-406E-A8F7-CAAF90619346}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5607,7 +8615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5617,29 +8625,29 @@
       <c r="C2">
         <v>256</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>0.243719244003295</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>0.84046387672424305</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>1.0841831207275301</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="5">
         <v>10.141628408432</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
         <v>11.2258115291595</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="5">
         <v>89.080419478133507</v>
       </c>
       <c r="J2">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5649,29 +8657,29 @@
       <c r="C3">
         <v>448</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>1.0932781219482399</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>1.0182653903961101</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>2.11154351234436</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>19.1679630756378</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>21.279506587982102</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>46.993570826720202</v>
       </c>
       <c r="J3">
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5681,29 +8689,29 @@
       <c r="C4">
         <v>640</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>2.24342513084411</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>1.9454683780670099</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>4.1888935089111303</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>35.837070798873903</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>40.025964307785003</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>24.9837828343213</v>
       </c>
       <c r="J4">
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5713,29 +8721,29 @@
       <c r="C5">
         <v>832</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>3.5901308059692298</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>2.50783638954162</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>6.0979671955108596</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>68.195323085784906</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>74.293290281295697</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>13.460165732513801</v>
       </c>
       <c r="J5">
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -5745,29 +8753,29 @@
       <c r="C6">
         <v>1024</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>5.5809366703033403</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>4.0299361705779999</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>9.6108728408813402</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>105.97678842544499</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>115.58766126632599</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>8.6514424554009093</v>
       </c>
       <c r="J6">
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -5777,29 +8785,29 @@
       <c r="C7">
         <v>256</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>0.29055061340332</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>0.90285959243774405</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>1.1934102058410601</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>14.572713375091499</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>15.7661235809326</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>63.427131905105</v>
       </c>
       <c r="J7">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5809,29 +8817,29 @@
       <c r="C8">
         <v>448</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>1.2744545936584399</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>1.30874481201171</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>2.5831994056701602</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>31.5469968318939</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>34.130196237564</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>29.299567838387802</v>
       </c>
       <c r="J8">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5841,29 +8849,29 @@
       <c r="C9">
         <v>640</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>2.4620860099792399</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>2.1359723567962599</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>4.5980583667755104</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>62.192293739318799</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>66.790352106094304</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>14.9722223115627</v>
       </c>
       <c r="J9">
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5873,29 +8881,29 @@
       <c r="C10">
         <v>832</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>4.1840089797973601</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>3.00836119651794</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>7.1923701763152996</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>111.868339681625</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>119.06070985794</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>8.3990764139838099</v>
       </c>
       <c r="J10">
         <v>688</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5905,29 +8913,29 @@
       <c r="C11">
         <v>1024</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>5.7086902141570999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>4.8048207283020004</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>10.513510942459099</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>169.59895315170201</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>180.112464094161</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>5.55208660893787</v>
       </c>
       <c r="J11">
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5937,29 +8945,29 @@
       <c r="C12">
         <v>256</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>0.30926418304443298</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>1.0183655738830499</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>1.32762975692749</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>26.237813854217499</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>27.565443611145</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>36.2773048062135</v>
       </c>
       <c r="J12">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5969,29 +8977,29 @@
       <c r="C13">
         <v>448</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>1.6060508728027301</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>1.6209608078002899</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>3.2270116806030198</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>63.785854578018103</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>67.012866258621202</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <v>14.922507509837301</v>
       </c>
       <c r="J13">
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6001,29 +9009,29 @@
       <c r="C14">
         <v>640</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>3.0997354984283398</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>3.3723194122314402</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>6.4720549106597902</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>134.69117631912201</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>141.16323122978201</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>7.0839976620556602</v>
       </c>
       <c r="J14">
         <v>810</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -6033,29 +9041,29 @@
       <c r="C15">
         <v>832</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>4.7852356910705502</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>3.5309593200683498</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>8.3161950111389107</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>241.885690689086</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>250.20188570022501</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>3.99677243519311</v>
       </c>
       <c r="J15">
         <v>1378</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6065,29 +9073,29 @@
       <c r="C16">
         <v>1024</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>6.6518336772918696</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>4.9474659442901601</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>11.599299621582</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>360.04673557281399</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>371.64603519439697</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="5">
         <v>2.6907323240430299</v>
       </c>
       <c r="J16">
         <v>1996</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6097,29 +9105,29 @@
       <c r="C17">
         <v>256</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>0.29044275283813398</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>0.990237665176391</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>1.2806804180145199</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>47.174611663818297</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>48.455292081832802</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <v>20.637580685947899</v>
       </c>
       <c r="J17">
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -6129,29 +9137,29 @@
       <c r="C18">
         <v>448</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>1.7154144287109301</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>2.0364978790283201</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>3.75191230773925</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>123.788621759414</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>127.540534067153</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>7.8406446022365701</v>
       </c>
       <c r="J18">
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -6161,29 +9169,29 @@
       <c r="C19">
         <v>640</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>3.6031491279601999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>3.1653121948242098</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>6.7684613227844199</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>258.89829387664702</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>265.66675519943198</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="5">
         <v>3.76411417849144</v>
       </c>
       <c r="J19">
         <v>1439</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -6193,29 +9201,29 @@
       <c r="C20">
         <v>832</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>4.3996299743652303</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>2.9113382816314699</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>7.3109682559967002</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>538.37924771308894</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>545.69021596908499</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <v>1.8325415606437201</v>
       </c>
       <c r="J20">
         <v>2850</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -6225,29 +9233,29 @@
       <c r="C21">
         <v>1024</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>6.6425714015960597</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>4.6500545501708901</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>11.292625951766899</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>693.91960301399195</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>705.21222896575898</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>1.4180128462414301</v>
       </c>
       <c r="J21">
         <v>3673</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -6255,31 +9263,31 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>320</v>
-      </c>
-      <c r="D22">
-        <v>0.58104138400000005</v>
-      </c>
-      <c r="E22">
-        <v>1.2436456199999999</v>
-      </c>
-      <c r="F22">
-        <v>1.8246870040000001</v>
-      </c>
-      <c r="G22">
-        <v>11.60457349</v>
-      </c>
-      <c r="H22">
-        <v>13.429260490000001</v>
-      </c>
-      <c r="I22">
-        <v>74.464264099999994</v>
+        <v>256</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.28435211181640602</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.88423686027526804</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1.16858897209167</v>
+      </c>
+      <c r="G22" s="5">
+        <v>8.8229302883148204</v>
+      </c>
+      <c r="H22" s="5">
+        <v>9.9915192604064895</v>
+      </c>
+      <c r="I22" s="5">
+        <v>100.08487937992599</v>
       </c>
       <c r="J22">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -6287,31 +9295,31 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>480</v>
-      </c>
-      <c r="D23">
-        <v>1.3526410579999999</v>
-      </c>
-      <c r="E23">
-        <v>1.3991978650000001</v>
-      </c>
-      <c r="F23">
-        <v>2.7518389230000002</v>
-      </c>
-      <c r="G23">
-        <v>21.108705520000001</v>
-      </c>
-      <c r="H23">
-        <v>23.860544440000002</v>
-      </c>
-      <c r="I23">
-        <v>41.910192049999999</v>
+        <v>448</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.4649578094482401</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.1462200641632001</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2.6111778736114499</v>
+      </c>
+      <c r="G23" s="5">
+        <v>19.746273231506301</v>
+      </c>
+      <c r="H23" s="5">
+        <v>22.3574511051178</v>
+      </c>
+      <c r="I23" s="5">
+        <v>44.727817822269103</v>
       </c>
       <c r="J23">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -6321,29 +9329,29 @@
       <c r="C24">
         <v>640</v>
       </c>
-      <c r="D24">
-        <v>2.3845905780000001</v>
-      </c>
-      <c r="E24">
-        <v>1.888451052</v>
-      </c>
-      <c r="F24">
-        <v>4.2730416299999998</v>
-      </c>
-      <c r="G24">
-        <v>36.103101780000003</v>
-      </c>
-      <c r="H24">
-        <v>40.376143409999997</v>
-      </c>
-      <c r="I24">
-        <v>24.767100460000002</v>
+      <c r="D24" s="5">
+        <v>2.2872521877288801</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2.1111271381378098</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4.3983793258666903</v>
+      </c>
+      <c r="G24" s="5">
+        <v>36.256836938858001</v>
+      </c>
+      <c r="H24" s="5">
+        <v>40.6552162647247</v>
+      </c>
+      <c r="I24" s="5">
+        <v>24.597089669589799</v>
       </c>
       <c r="J24">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -6351,63 +9359,63 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>960</v>
-      </c>
-      <c r="D25">
-        <v>5.243044662</v>
-      </c>
-      <c r="E25">
-        <v>2.9327992919999999</v>
-      </c>
-      <c r="F25">
-        <v>8.1758439539999994</v>
-      </c>
-      <c r="G25">
-        <v>123.9607534</v>
-      </c>
-      <c r="H25">
-        <v>132.1365974</v>
-      </c>
-      <c r="I25">
-        <v>7.5679260680000002</v>
+        <v>832</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3.5556863307952802</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.4927475452422998</v>
+      </c>
+      <c r="F25" s="5">
+        <v>6.0484338760375902</v>
+      </c>
+      <c r="G25" s="5">
+        <v>64.619779443740796</v>
+      </c>
+      <c r="H25" s="5">
+        <v>70.668213319778403</v>
+      </c>
+      <c r="I25" s="5">
+        <v>14.1506336869581</v>
       </c>
       <c r="J25">
-        <v>734</v>
+        <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26">
-        <v>320</v>
-      </c>
-      <c r="D26">
-        <v>0.75286178599999998</v>
-      </c>
-      <c r="E26">
-        <v>0.88413505599999997</v>
-      </c>
-      <c r="F26">
-        <v>1.636996841</v>
-      </c>
-      <c r="G26">
-        <v>18.138509039999999</v>
-      </c>
-      <c r="H26">
-        <v>19.775505880000001</v>
-      </c>
-      <c r="I26">
-        <v>50.567606529999999</v>
+        <v>1024</v>
+      </c>
+      <c r="D26" s="5">
+        <v>6.0026729106902996</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3.6429636001586898</v>
+      </c>
+      <c r="F26" s="5">
+        <v>9.6456365108489894</v>
+      </c>
+      <c r="G26" s="5">
+        <v>107.633641481399</v>
+      </c>
+      <c r="H26" s="5">
+        <v>117.279277992248</v>
+      </c>
+      <c r="I26" s="5">
+        <v>8.5266554937871799</v>
       </c>
       <c r="J26">
-        <v>151</v>
+        <v>669</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -6415,31 +9423,31 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>480</v>
-      </c>
-      <c r="D27">
-        <v>1.7339015959999999</v>
-      </c>
-      <c r="E27">
-        <v>1.3301737789999999</v>
-      </c>
-      <c r="F27">
-        <v>3.0640753749999998</v>
-      </c>
-      <c r="G27">
-        <v>35.91150966</v>
-      </c>
-      <c r="H27">
-        <v>38.975585029999998</v>
-      </c>
-      <c r="I27">
-        <v>25.657087619999999</v>
+        <v>256</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.28743772506713799</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.0841579437255799</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1.37159566879272</v>
+      </c>
+      <c r="G27" s="5">
+        <v>12.525071525573701</v>
+      </c>
+      <c r="H27" s="5">
+        <v>13.896667194366399</v>
+      </c>
+      <c r="I27" s="5">
+        <v>71.959699834028399</v>
       </c>
       <c r="J27">
-        <v>252</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -6447,31 +9455,31 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>640</v>
-      </c>
-      <c r="D28">
-        <v>2.4744284630000002</v>
-      </c>
-      <c r="E28">
-        <v>2.1516398909999999</v>
-      </c>
-      <c r="F28">
-        <v>4.626068354</v>
-      </c>
-      <c r="G28">
-        <v>60.545607279999999</v>
-      </c>
-      <c r="H28">
-        <v>65.171675629999996</v>
-      </c>
-      <c r="I28">
-        <v>15.34408913</v>
+        <v>448</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.29347004890441</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.35553112030029</v>
+      </c>
+      <c r="F28" s="5">
+        <v>2.64900116920471</v>
+      </c>
+      <c r="G28" s="5">
+        <v>30.077416181564299</v>
+      </c>
+      <c r="H28" s="5">
+        <v>32.726417350768997</v>
+      </c>
+      <c r="I28" s="5">
+        <v>30.556354191837599</v>
       </c>
       <c r="J28">
-        <v>391</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -6479,95 +9487,95 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>960</v>
-      </c>
-      <c r="D29">
-        <v>5.41825695</v>
-      </c>
-      <c r="E29">
-        <v>4.0012884140000002</v>
-      </c>
-      <c r="F29">
-        <v>9.4195453639999993</v>
-      </c>
-      <c r="G29">
-        <v>176.74116029999999</v>
-      </c>
-      <c r="H29">
-        <v>186.16070569999999</v>
-      </c>
-      <c r="I29">
-        <v>5.3717028850000004</v>
+        <v>640</v>
+      </c>
+      <c r="D29" s="5">
+        <v>2.47765002250671</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2.0394322872161799</v>
+      </c>
+      <c r="F29" s="5">
+        <v>4.5170823097229</v>
+      </c>
+      <c r="G29" s="5">
+        <v>59.956388521194398</v>
+      </c>
+      <c r="H29" s="5">
+        <v>64.473470830917293</v>
+      </c>
+      <c r="I29" s="5">
+        <v>15.5102554137734</v>
       </c>
       <c r="J29">
-        <v>1017</v>
+        <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30">
-        <v>320</v>
-      </c>
-      <c r="D30">
-        <v>0.74039859799999996</v>
-      </c>
-      <c r="E30">
-        <v>0.968326664</v>
-      </c>
-      <c r="F30">
-        <v>1.708725262</v>
-      </c>
-      <c r="G30">
-        <v>34.485425759999998</v>
-      </c>
-      <c r="H30">
-        <v>36.19415102</v>
-      </c>
-      <c r="I30">
-        <v>27.62877348</v>
+        <v>832</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3.82142806053161</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2.7616916656494102</v>
+      </c>
+      <c r="F30" s="5">
+        <v>6.5831197261810299</v>
+      </c>
+      <c r="G30" s="5">
+        <v>114.917153167724</v>
+      </c>
+      <c r="H30" s="5">
+        <v>121.50027289390501</v>
+      </c>
+      <c r="I30" s="5">
+        <v>8.2304341890096193</v>
       </c>
       <c r="J30">
-        <v>248</v>
+        <v>696</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31">
-        <v>480</v>
-      </c>
-      <c r="D31">
-        <v>2.0216793059999998</v>
-      </c>
-      <c r="E31">
-        <v>2.092765236</v>
-      </c>
-      <c r="F31">
-        <v>4.1144445420000002</v>
-      </c>
-      <c r="G31">
-        <v>69.365133479999997</v>
-      </c>
-      <c r="H31">
-        <v>73.479578020000005</v>
-      </c>
-      <c r="I31">
-        <v>13.609223500000001</v>
+        <v>1024</v>
+      </c>
+      <c r="D31" s="5">
+        <v>6.4493868827819796</v>
+      </c>
+      <c r="E31" s="5">
+        <v>4.4896602630615199</v>
+      </c>
+      <c r="F31" s="5">
+        <v>10.939047145843499</v>
+      </c>
+      <c r="G31" s="5">
+        <v>169.644080257415</v>
+      </c>
+      <c r="H31" s="5">
+        <v>180.583127403259</v>
+      </c>
+      <c r="I31" s="5">
+        <v>5.5376159134009502</v>
       </c>
       <c r="J31">
-        <v>447</v>
+        <v>1005</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -6575,31 +9583,31 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>640</v>
-      </c>
-      <c r="D32">
-        <v>3.1089897629999999</v>
-      </c>
-      <c r="E32">
-        <v>2.713508987</v>
-      </c>
-      <c r="F32">
-        <v>5.8224987510000004</v>
-      </c>
-      <c r="G32">
-        <v>126.62045929999999</v>
-      </c>
-      <c r="H32">
-        <v>132.4429581</v>
-      </c>
-      <c r="I32">
-        <v>7.5504203060000004</v>
+        <v>256</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.24362783432006799</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.1244657516479399</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1.3680935859680099</v>
+      </c>
+      <c r="G32" s="5">
+        <v>22.491383600234901</v>
+      </c>
+      <c r="H32" s="5">
+        <v>23.859477186203002</v>
+      </c>
+      <c r="I32" s="5">
+        <v>41.912066731213201</v>
       </c>
       <c r="J32">
-        <v>758</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -6607,127 +9615,127 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>960</v>
-      </c>
-      <c r="D33">
-        <v>5.8751974110000003</v>
-      </c>
-      <c r="E33">
-        <v>4.8604299070000003</v>
-      </c>
-      <c r="F33">
-        <v>10.735627320000001</v>
-      </c>
-      <c r="G33">
-        <v>315.12339020000002</v>
-      </c>
-      <c r="H33">
-        <v>325.85901749999999</v>
-      </c>
-      <c r="I33">
-        <v>3.0688118059999998</v>
+        <v>448</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1.4779429435729901</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1.64294590950012</v>
+      </c>
+      <c r="F33" s="5">
+        <v>3.12088885307312</v>
+      </c>
+      <c r="G33" s="5">
+        <v>60.656218147277798</v>
+      </c>
+      <c r="H33" s="5">
+        <v>63.777107000350902</v>
+      </c>
+      <c r="I33" s="5">
+        <v>15.679607417666199</v>
       </c>
       <c r="J33">
-        <v>1756</v>
+        <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34">
-        <v>320</v>
-      </c>
-      <c r="D34">
-        <v>0.97485980999999999</v>
-      </c>
-      <c r="E34">
-        <v>1.471101904</v>
-      </c>
-      <c r="F34">
-        <v>2.4459617140000001</v>
-      </c>
-      <c r="G34">
-        <v>65.890511989999993</v>
-      </c>
-      <c r="H34">
-        <v>68.336473699999999</v>
-      </c>
-      <c r="I34">
-        <v>14.633473840000001</v>
+        <v>640</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3.1056784152984598</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3.0265405654907198</v>
+      </c>
+      <c r="F34" s="5">
+        <v>6.1322189807891796</v>
+      </c>
+      <c r="G34" s="5">
+        <v>127.593069601058</v>
+      </c>
+      <c r="H34" s="5">
+        <v>133.72528858184799</v>
+      </c>
+      <c r="I34" s="5">
+        <v>7.4780171395026596</v>
       </c>
       <c r="J34">
-        <v>430</v>
+        <v>765</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35">
-        <v>480</v>
-      </c>
-      <c r="D35">
-        <v>1.9686461449999999</v>
-      </c>
-      <c r="E35">
-        <v>2.58923192</v>
-      </c>
-      <c r="F35">
-        <v>4.5578780649999997</v>
-      </c>
-      <c r="G35">
-        <v>135.5842346</v>
-      </c>
-      <c r="H35">
-        <v>140.14211270000001</v>
-      </c>
-      <c r="I35">
-        <v>7.1356138480000002</v>
+        <v>832</v>
+      </c>
+      <c r="D35" s="5">
+        <v>4.4465175628662097</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4.3325817584991402</v>
+      </c>
+      <c r="F35" s="5">
+        <v>8.7790993213653508</v>
+      </c>
+      <c r="G35" s="5">
+        <v>238.70939073562599</v>
+      </c>
+      <c r="H35" s="5">
+        <v>247.488490056991</v>
+      </c>
+      <c r="I35" s="5">
+        <v>4.0405919474061998</v>
       </c>
       <c r="J35">
-        <v>795</v>
+        <v>1356</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36">
-        <v>640</v>
-      </c>
-      <c r="D36">
-        <v>2.983632278</v>
-      </c>
-      <c r="E36">
-        <v>2.8305109979999998</v>
-      </c>
-      <c r="F36">
-        <v>5.8141432760000002</v>
-      </c>
-      <c r="G36">
-        <v>246.3254135</v>
-      </c>
-      <c r="H36">
-        <v>252.13955680000001</v>
-      </c>
-      <c r="I36">
-        <v>3.966057578</v>
+        <v>1024</v>
+      </c>
+      <c r="D36" s="5">
+        <v>6.3679111003875697</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4.3135559082031198</v>
+      </c>
+      <c r="F36" s="5">
+        <v>10.6814670085906</v>
+      </c>
+      <c r="G36" s="5">
+        <v>356.321771240234</v>
+      </c>
+      <c r="H36" s="5">
+        <v>367.00323824882503</v>
+      </c>
+      <c r="I36" s="5">
+        <v>2.7247715981241698</v>
       </c>
       <c r="J36">
-        <v>1363</v>
+        <v>1969</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -6735,77 +9743,161 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>960</v>
-      </c>
-      <c r="D37">
-        <v>5.9987565040000002</v>
-      </c>
-      <c r="E37">
-        <v>4.5518377780000003</v>
-      </c>
-      <c r="F37">
-        <v>10.55059428</v>
-      </c>
-      <c r="G37">
-        <v>609.24076879999996</v>
-      </c>
-      <c r="H37">
-        <v>619.79136310000001</v>
-      </c>
-      <c r="I37">
-        <v>1.6134461680000001</v>
+        <v>256</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.28430161476135202</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.974680948257446</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1.2589825630187901</v>
+      </c>
+      <c r="G37" s="5">
+        <v>40.498447418212798</v>
+      </c>
+      <c r="H37" s="5">
+        <v>41.757429981231603</v>
+      </c>
+      <c r="I37" s="5">
+        <v>23.947833965104099</v>
       </c>
       <c r="J37">
-        <v>3227</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
       </c>
       <c r="C38">
-        <v>320</v>
-      </c>
-      <c r="I38">
-        <v>30</v>
+        <v>448</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.7499016284942599</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1.9617949485778801</v>
+      </c>
+      <c r="F38" s="5">
+        <v>3.7116965770721402</v>
+      </c>
+      <c r="G38" s="5">
+        <v>120.485356855392</v>
+      </c>
+      <c r="H38" s="5">
+        <v>124.197053432464</v>
+      </c>
+      <c r="I38" s="5">
+        <v>8.0517208127145796</v>
+      </c>
+      <c r="J38">
+        <v>717</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
       </c>
       <c r="C39">
-        <v>480</v>
-      </c>
-      <c r="I39">
-        <v>30</v>
+        <v>640</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2.9312722206115698</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2.6065609931945799</v>
+      </c>
+      <c r="F39" s="5">
+        <v>5.5378332138061497</v>
+      </c>
+      <c r="G39" s="5">
+        <v>247.59455089568999</v>
+      </c>
+      <c r="H39" s="5">
+        <v>253.132384109497</v>
+      </c>
+      <c r="I39" s="5">
+        <v>3.9505020407322902</v>
+      </c>
+      <c r="J39">
+        <v>1368</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>640</v>
-      </c>
-      <c r="I40">
-        <v>30</v>
+        <v>832</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4.6494043827056801</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3.37904477119445</v>
+      </c>
+      <c r="F40" s="5">
+        <v>8.0284491539001408</v>
+      </c>
+      <c r="G40" s="5">
+        <v>514.46240849494905</v>
+      </c>
+      <c r="H40" s="5">
+        <v>522.49085764884899</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1.9139090863711701</v>
+      </c>
+      <c r="J40">
+        <v>2726</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>960</v>
-      </c>
-      <c r="I41">
-        <v>30</v>
+        <v>1024</v>
+      </c>
+      <c r="D41" s="5">
+        <v>6.4367089748382504</v>
+      </c>
+      <c r="E41" s="5">
+        <v>5.20313158035278</v>
+      </c>
+      <c r="F41" s="5">
+        <v>11.639840555191</v>
+      </c>
+      <c r="G41" s="5">
+        <v>688.02845258712705</v>
+      </c>
+      <c r="H41" s="5">
+        <v>699.66829314231802</v>
+      </c>
+      <c r="I41" s="5">
+        <v>1.4292487022798199</v>
+      </c>
+      <c r="J41">
+        <v>3634</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>256</v>
@@ -6814,9 +9906,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>448</v>
@@ -6825,9 +9917,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44">
         <v>640</v>
@@ -6836,9 +9928,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45">
         <v>832</v>
@@ -6847,9 +9939,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>1024</v>
@@ -6859,31 +9951,30 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE85E93-B8E5-4A1A-90EE-9312667461DB}">
+  <dimension ref="A3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -6891,7 +9982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -6908,86 +9999,106 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="B5" s="5">
-        <v>74.464264099999994</v>
+        <v>100.08487937992599</v>
       </c>
       <c r="C5" s="5">
-        <v>50.567606529999999</v>
+        <v>71.959699834028399</v>
       </c>
       <c r="D5" s="5">
-        <v>27.62877348</v>
+        <v>41.912066731213201</v>
       </c>
       <c r="E5" s="5">
-        <v>14.633473840000001</v>
+        <v>23.947833965104099</v>
       </c>
       <c r="F5" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="B6" s="5">
-        <v>41.910192049999999</v>
+        <v>44.727817822269103</v>
       </c>
       <c r="C6" s="5">
-        <v>25.657087619999999</v>
+        <v>30.556354191837599</v>
       </c>
       <c r="D6" s="5">
-        <v>13.609223500000001</v>
+        <v>15.679607417666199</v>
       </c>
       <c r="E6" s="5">
-        <v>7.1356138480000002</v>
+        <v>8.0517208127145796</v>
       </c>
       <c r="F6" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>640</v>
       </c>
       <c r="B7" s="5">
-        <v>24.767100460000002</v>
+        <v>24.597089669589799</v>
       </c>
       <c r="C7" s="5">
-        <v>15.34408913</v>
+        <v>15.5102554137734</v>
       </c>
       <c r="D7" s="5">
-        <v>7.5504203060000004</v>
+        <v>7.4780171395026596</v>
       </c>
       <c r="E7" s="5">
-        <v>3.966057578</v>
+        <v>3.9505020407322902</v>
       </c>
       <c r="F7" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>960</v>
+        <v>832</v>
       </c>
       <c r="B8" s="5">
-        <v>7.5679260680000002</v>
+        <v>14.1506336869581</v>
       </c>
       <c r="C8" s="5">
-        <v>5.3717028850000004</v>
+        <v>8.2304341890096193</v>
       </c>
       <c r="D8" s="5">
-        <v>3.0688118059999998</v>
+        <v>4.0405919474061998</v>
       </c>
       <c r="E8" s="5">
-        <v>1.6134461680000001</v>
+        <v>1.9139090863711701</v>
       </c>
       <c r="F8" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8.5266554937871799</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.5376159134009502</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.7247715981241698</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.4292487022798199</v>
+      </c>
+      <c r="F9" s="4">
         <v>30</v>
       </c>
     </row>
@@ -6998,24 +10109,1464 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>256</v>
+      </c>
+      <c r="D2">
+        <v>0.243719244003295</v>
+      </c>
+      <c r="E2">
+        <v>0.84046387672424305</v>
+      </c>
+      <c r="F2">
+        <v>1.0841831207275301</v>
+      </c>
+      <c r="G2">
+        <v>10.141628408432</v>
+      </c>
+      <c r="H2">
+        <v>11.2258115291595</v>
+      </c>
+      <c r="I2">
+        <v>89.080419478133507</v>
+      </c>
+      <c r="J2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>448</v>
+      </c>
+      <c r="D3">
+        <v>1.0932781219482399</v>
+      </c>
+      <c r="E3">
+        <v>1.0182653903961101</v>
+      </c>
+      <c r="F3">
+        <v>2.11154351234436</v>
+      </c>
+      <c r="G3">
+        <v>19.1679630756378</v>
+      </c>
+      <c r="H3">
+        <v>21.279506587982102</v>
+      </c>
+      <c r="I3">
+        <v>46.993570826720202</v>
+      </c>
+      <c r="J3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>640</v>
+      </c>
+      <c r="D4">
+        <v>2.24342513084411</v>
+      </c>
+      <c r="E4">
+        <v>1.9454683780670099</v>
+      </c>
+      <c r="F4">
+        <v>4.1888935089111303</v>
+      </c>
+      <c r="G4">
+        <v>35.837070798873903</v>
+      </c>
+      <c r="H4">
+        <v>40.025964307785003</v>
+      </c>
+      <c r="I4">
+        <v>24.9837828343213</v>
+      </c>
+      <c r="J4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>832</v>
+      </c>
+      <c r="D5">
+        <v>3.5901308059692298</v>
+      </c>
+      <c r="E5">
+        <v>2.50783638954162</v>
+      </c>
+      <c r="F5">
+        <v>6.0979671955108596</v>
+      </c>
+      <c r="G5">
+        <v>68.195323085784906</v>
+      </c>
+      <c r="H5">
+        <v>74.293290281295697</v>
+      </c>
+      <c r="I5">
+        <v>13.460165732513801</v>
+      </c>
+      <c r="J5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1024</v>
+      </c>
+      <c r="D6">
+        <v>5.5809366703033403</v>
+      </c>
+      <c r="E6">
+        <v>4.0299361705779999</v>
+      </c>
+      <c r="F6">
+        <v>9.6108728408813402</v>
+      </c>
+      <c r="G6">
+        <v>105.97678842544499</v>
+      </c>
+      <c r="H6">
+        <v>115.58766126632599</v>
+      </c>
+      <c r="I6">
+        <v>8.6514424554009093</v>
+      </c>
+      <c r="J6">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>256</v>
+      </c>
+      <c r="D7">
+        <v>0.29055061340332</v>
+      </c>
+      <c r="E7">
+        <v>0.90285959243774405</v>
+      </c>
+      <c r="F7">
+        <v>1.1934102058410601</v>
+      </c>
+      <c r="G7">
+        <v>14.572713375091499</v>
+      </c>
+      <c r="H7">
+        <v>15.7661235809326</v>
+      </c>
+      <c r="I7">
+        <v>63.427131905105</v>
+      </c>
+      <c r="J7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>448</v>
+      </c>
+      <c r="D8">
+        <v>1.2744545936584399</v>
+      </c>
+      <c r="E8">
+        <v>1.30874481201171</v>
+      </c>
+      <c r="F8">
+        <v>2.5831994056701602</v>
+      </c>
+      <c r="G8">
+        <v>31.5469968318939</v>
+      </c>
+      <c r="H8">
+        <v>34.130196237564</v>
+      </c>
+      <c r="I8">
+        <v>29.299567838387802</v>
+      </c>
+      <c r="J8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>640</v>
+      </c>
+      <c r="D9">
+        <v>2.4620860099792399</v>
+      </c>
+      <c r="E9">
+        <v>2.1359723567962599</v>
+      </c>
+      <c r="F9">
+        <v>4.5980583667755104</v>
+      </c>
+      <c r="G9">
+        <v>62.192293739318799</v>
+      </c>
+      <c r="H9">
+        <v>66.790352106094304</v>
+      </c>
+      <c r="I9">
+        <v>14.9722223115627</v>
+      </c>
+      <c r="J9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>832</v>
+      </c>
+      <c r="D10">
+        <v>4.1840089797973601</v>
+      </c>
+      <c r="E10">
+        <v>3.00836119651794</v>
+      </c>
+      <c r="F10">
+        <v>7.1923701763152996</v>
+      </c>
+      <c r="G10">
+        <v>111.868339681625</v>
+      </c>
+      <c r="H10">
+        <v>119.06070985794</v>
+      </c>
+      <c r="I10">
+        <v>8.3990764139838099</v>
+      </c>
+      <c r="J10">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1024</v>
+      </c>
+      <c r="D11">
+        <v>5.7086902141570999</v>
+      </c>
+      <c r="E11">
+        <v>4.8048207283020004</v>
+      </c>
+      <c r="F11">
+        <v>10.513510942459099</v>
+      </c>
+      <c r="G11">
+        <v>169.59895315170201</v>
+      </c>
+      <c r="H11">
+        <v>180.112464094161</v>
+      </c>
+      <c r="I11">
+        <v>5.55208660893787</v>
+      </c>
+      <c r="J11">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>256</v>
+      </c>
+      <c r="D12">
+        <v>0.30926418304443298</v>
+      </c>
+      <c r="E12">
+        <v>1.0183655738830499</v>
+      </c>
+      <c r="F12">
+        <v>1.32762975692749</v>
+      </c>
+      <c r="G12">
+        <v>26.237813854217499</v>
+      </c>
+      <c r="H12">
+        <v>27.565443611145</v>
+      </c>
+      <c r="I12">
+        <v>36.2773048062135</v>
+      </c>
+      <c r="J12">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>448</v>
+      </c>
+      <c r="D13">
+        <v>1.6060508728027301</v>
+      </c>
+      <c r="E13">
+        <v>1.6209608078002899</v>
+      </c>
+      <c r="F13">
+        <v>3.2270116806030198</v>
+      </c>
+      <c r="G13">
+        <v>63.785854578018103</v>
+      </c>
+      <c r="H13">
+        <v>67.012866258621202</v>
+      </c>
+      <c r="I13">
+        <v>14.922507509837301</v>
+      </c>
+      <c r="J13">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>640</v>
+      </c>
+      <c r="D14">
+        <v>3.0997354984283398</v>
+      </c>
+      <c r="E14">
+        <v>3.3723194122314402</v>
+      </c>
+      <c r="F14">
+        <v>6.4720549106597902</v>
+      </c>
+      <c r="G14">
+        <v>134.69117631912201</v>
+      </c>
+      <c r="H14">
+        <v>141.16323122978201</v>
+      </c>
+      <c r="I14">
+        <v>7.0839976620556602</v>
+      </c>
+      <c r="J14">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>832</v>
+      </c>
+      <c r="D15">
+        <v>4.7852356910705502</v>
+      </c>
+      <c r="E15">
+        <v>3.5309593200683498</v>
+      </c>
+      <c r="F15">
+        <v>8.3161950111389107</v>
+      </c>
+      <c r="G15">
+        <v>241.885690689086</v>
+      </c>
+      <c r="H15">
+        <v>250.20188570022501</v>
+      </c>
+      <c r="I15">
+        <v>3.99677243519311</v>
+      </c>
+      <c r="J15">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1024</v>
+      </c>
+      <c r="D16">
+        <v>6.6518336772918696</v>
+      </c>
+      <c r="E16">
+        <v>4.9474659442901601</v>
+      </c>
+      <c r="F16">
+        <v>11.599299621582</v>
+      </c>
+      <c r="G16">
+        <v>360.04673557281399</v>
+      </c>
+      <c r="H16">
+        <v>371.64603519439697</v>
+      </c>
+      <c r="I16">
+        <v>2.6907323240430299</v>
+      </c>
+      <c r="J16">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>256</v>
+      </c>
+      <c r="D17">
+        <v>0.29044275283813398</v>
+      </c>
+      <c r="E17">
+        <v>0.990237665176391</v>
+      </c>
+      <c r="F17">
+        <v>1.2806804180145199</v>
+      </c>
+      <c r="G17">
+        <v>47.174611663818297</v>
+      </c>
+      <c r="H17">
+        <v>48.455292081832802</v>
+      </c>
+      <c r="I17">
+        <v>20.637580685947899</v>
+      </c>
+      <c r="J17">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>448</v>
+      </c>
+      <c r="D18">
+        <v>1.7154144287109301</v>
+      </c>
+      <c r="E18">
+        <v>2.0364978790283201</v>
+      </c>
+      <c r="F18">
+        <v>3.75191230773925</v>
+      </c>
+      <c r="G18">
+        <v>123.788621759414</v>
+      </c>
+      <c r="H18">
+        <v>127.540534067153</v>
+      </c>
+      <c r="I18">
+        <v>7.8406446022365701</v>
+      </c>
+      <c r="J18">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>640</v>
+      </c>
+      <c r="D19">
+        <v>3.6031491279601999</v>
+      </c>
+      <c r="E19">
+        <v>3.1653121948242098</v>
+      </c>
+      <c r="F19">
+        <v>6.7684613227844199</v>
+      </c>
+      <c r="G19">
+        <v>258.89829387664702</v>
+      </c>
+      <c r="H19">
+        <v>265.66675519943198</v>
+      </c>
+      <c r="I19">
+        <v>3.76411417849144</v>
+      </c>
+      <c r="J19">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>832</v>
+      </c>
+      <c r="D20">
+        <v>4.3996299743652303</v>
+      </c>
+      <c r="E20">
+        <v>2.9113382816314699</v>
+      </c>
+      <c r="F20">
+        <v>7.3109682559967002</v>
+      </c>
+      <c r="G20">
+        <v>538.37924771308894</v>
+      </c>
+      <c r="H20">
+        <v>545.69021596908499</v>
+      </c>
+      <c r="I20">
+        <v>1.8325415606437201</v>
+      </c>
+      <c r="J20">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1024</v>
+      </c>
+      <c r="D21">
+        <v>6.6425714015960597</v>
+      </c>
+      <c r="E21">
+        <v>4.6500545501708901</v>
+      </c>
+      <c r="F21">
+        <v>11.292625951766899</v>
+      </c>
+      <c r="G21">
+        <v>693.91960301399195</v>
+      </c>
+      <c r="H21">
+        <v>705.21222896575898</v>
+      </c>
+      <c r="I21">
+        <v>1.4180128462414301</v>
+      </c>
+      <c r="J21">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>320</v>
+      </c>
+      <c r="D22">
+        <v>0.58104138400000005</v>
+      </c>
+      <c r="E22">
+        <v>1.2436456199999999</v>
+      </c>
+      <c r="F22">
+        <v>1.8246870040000001</v>
+      </c>
+      <c r="G22">
+        <v>11.60457349</v>
+      </c>
+      <c r="H22">
+        <v>13.429260490000001</v>
+      </c>
+      <c r="I22">
+        <v>74.464264099999994</v>
+      </c>
+      <c r="J22">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>480</v>
+      </c>
+      <c r="D23">
+        <v>1.3526410579999999</v>
+      </c>
+      <c r="E23">
+        <v>1.3991978650000001</v>
+      </c>
+      <c r="F23">
+        <v>2.7518389230000002</v>
+      </c>
+      <c r="G23">
+        <v>21.108705520000001</v>
+      </c>
+      <c r="H23">
+        <v>23.860544440000002</v>
+      </c>
+      <c r="I23">
+        <v>41.910192049999999</v>
+      </c>
+      <c r="J23">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>640</v>
+      </c>
+      <c r="D24">
+        <v>2.3845905780000001</v>
+      </c>
+      <c r="E24">
+        <v>1.888451052</v>
+      </c>
+      <c r="F24">
+        <v>4.2730416299999998</v>
+      </c>
+      <c r="G24">
+        <v>36.103101780000003</v>
+      </c>
+      <c r="H24">
+        <v>40.376143409999997</v>
+      </c>
+      <c r="I24">
+        <v>24.767100460000002</v>
+      </c>
+      <c r="J24">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>960</v>
+      </c>
+      <c r="D25">
+        <v>5.243044662</v>
+      </c>
+      <c r="E25">
+        <v>2.9327992919999999</v>
+      </c>
+      <c r="F25">
+        <v>8.1758439539999994</v>
+      </c>
+      <c r="G25">
+        <v>123.9607534</v>
+      </c>
+      <c r="H25">
+        <v>132.1365974</v>
+      </c>
+      <c r="I25">
+        <v>7.5679260680000002</v>
+      </c>
+      <c r="J25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>320</v>
+      </c>
+      <c r="D26">
+        <v>0.75286178599999998</v>
+      </c>
+      <c r="E26">
+        <v>0.88413505599999997</v>
+      </c>
+      <c r="F26">
+        <v>1.636996841</v>
+      </c>
+      <c r="G26">
+        <v>18.138509039999999</v>
+      </c>
+      <c r="H26">
+        <v>19.775505880000001</v>
+      </c>
+      <c r="I26">
+        <v>50.567606529999999</v>
+      </c>
+      <c r="J26">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>480</v>
+      </c>
+      <c r="D27">
+        <v>1.7339015959999999</v>
+      </c>
+      <c r="E27">
+        <v>1.3301737789999999</v>
+      </c>
+      <c r="F27">
+        <v>3.0640753749999998</v>
+      </c>
+      <c r="G27">
+        <v>35.91150966</v>
+      </c>
+      <c r="H27">
+        <v>38.975585029999998</v>
+      </c>
+      <c r="I27">
+        <v>25.657087619999999</v>
+      </c>
+      <c r="J27">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>640</v>
+      </c>
+      <c r="D28">
+        <v>2.4744284630000002</v>
+      </c>
+      <c r="E28">
+        <v>2.1516398909999999</v>
+      </c>
+      <c r="F28">
+        <v>4.626068354</v>
+      </c>
+      <c r="G28">
+        <v>60.545607279999999</v>
+      </c>
+      <c r="H28">
+        <v>65.171675629999996</v>
+      </c>
+      <c r="I28">
+        <v>15.34408913</v>
+      </c>
+      <c r="J28">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>960</v>
+      </c>
+      <c r="D29">
+        <v>5.41825695</v>
+      </c>
+      <c r="E29">
+        <v>4.0012884140000002</v>
+      </c>
+      <c r="F29">
+        <v>9.4195453639999993</v>
+      </c>
+      <c r="G29">
+        <v>176.74116029999999</v>
+      </c>
+      <c r="H29">
+        <v>186.16070569999999</v>
+      </c>
+      <c r="I29">
+        <v>5.3717028850000004</v>
+      </c>
+      <c r="J29">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>320</v>
+      </c>
+      <c r="D30">
+        <v>0.74039859799999996</v>
+      </c>
+      <c r="E30">
+        <v>0.968326664</v>
+      </c>
+      <c r="F30">
+        <v>1.708725262</v>
+      </c>
+      <c r="G30">
+        <v>34.485425759999998</v>
+      </c>
+      <c r="H30">
+        <v>36.19415102</v>
+      </c>
+      <c r="I30">
+        <v>27.62877348</v>
+      </c>
+      <c r="J30">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>480</v>
+      </c>
+      <c r="D31">
+        <v>2.0216793059999998</v>
+      </c>
+      <c r="E31">
+        <v>2.092765236</v>
+      </c>
+      <c r="F31">
+        <v>4.1144445420000002</v>
+      </c>
+      <c r="G31">
+        <v>69.365133479999997</v>
+      </c>
+      <c r="H31">
+        <v>73.479578020000005</v>
+      </c>
+      <c r="I31">
+        <v>13.609223500000001</v>
+      </c>
+      <c r="J31">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>640</v>
+      </c>
+      <c r="D32">
+        <v>3.1089897629999999</v>
+      </c>
+      <c r="E32">
+        <v>2.713508987</v>
+      </c>
+      <c r="F32">
+        <v>5.8224987510000004</v>
+      </c>
+      <c r="G32">
+        <v>126.62045929999999</v>
+      </c>
+      <c r="H32">
+        <v>132.4429581</v>
+      </c>
+      <c r="I32">
+        <v>7.5504203060000004</v>
+      </c>
+      <c r="J32">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>960</v>
+      </c>
+      <c r="D33">
+        <v>5.8751974110000003</v>
+      </c>
+      <c r="E33">
+        <v>4.8604299070000003</v>
+      </c>
+      <c r="F33">
+        <v>10.735627320000001</v>
+      </c>
+      <c r="G33">
+        <v>315.12339020000002</v>
+      </c>
+      <c r="H33">
+        <v>325.85901749999999</v>
+      </c>
+      <c r="I33">
+        <v>3.0688118059999998</v>
+      </c>
+      <c r="J33">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>320</v>
+      </c>
+      <c r="D34">
+        <v>0.97485980999999999</v>
+      </c>
+      <c r="E34">
+        <v>1.471101904</v>
+      </c>
+      <c r="F34">
+        <v>2.4459617140000001</v>
+      </c>
+      <c r="G34">
+        <v>65.890511989999993</v>
+      </c>
+      <c r="H34">
+        <v>68.336473699999999</v>
+      </c>
+      <c r="I34">
+        <v>14.633473840000001</v>
+      </c>
+      <c r="J34">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>480</v>
+      </c>
+      <c r="D35">
+        <v>1.9686461449999999</v>
+      </c>
+      <c r="E35">
+        <v>2.58923192</v>
+      </c>
+      <c r="F35">
+        <v>4.5578780649999997</v>
+      </c>
+      <c r="G35">
+        <v>135.5842346</v>
+      </c>
+      <c r="H35">
+        <v>140.14211270000001</v>
+      </c>
+      <c r="I35">
+        <v>7.1356138480000002</v>
+      </c>
+      <c r="J35">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>640</v>
+      </c>
+      <c r="D36">
+        <v>2.983632278</v>
+      </c>
+      <c r="E36">
+        <v>2.8305109979999998</v>
+      </c>
+      <c r="F36">
+        <v>5.8141432760000002</v>
+      </c>
+      <c r="G36">
+        <v>246.3254135</v>
+      </c>
+      <c r="H36">
+        <v>252.13955680000001</v>
+      </c>
+      <c r="I36">
+        <v>3.966057578</v>
+      </c>
+      <c r="J36">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>960</v>
+      </c>
+      <c r="D37">
+        <v>5.9987565040000002</v>
+      </c>
+      <c r="E37">
+        <v>4.5518377780000003</v>
+      </c>
+      <c r="F37">
+        <v>10.55059428</v>
+      </c>
+      <c r="G37">
+        <v>609.24076879999996</v>
+      </c>
+      <c r="H37">
+        <v>619.79136310000001</v>
+      </c>
+      <c r="I37">
+        <v>1.6134461680000001</v>
+      </c>
+      <c r="J37">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>320</v>
+      </c>
+      <c r="I38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <v>480</v>
+      </c>
+      <c r="I39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>640</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>960</v>
+      </c>
+      <c r="I41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>256</v>
+      </c>
+      <c r="I42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>448</v>
+      </c>
+      <c r="I43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>640</v>
+      </c>
+      <c r="I44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>832</v>
+      </c>
+      <c r="I45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>1024</v>
+      </c>
+      <c r="I46">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>320</v>
+      </c>
+      <c r="B5" s="5">
+        <v>74.464264099999994</v>
+      </c>
+      <c r="C5" s="5">
+        <v>50.567606529999999</v>
+      </c>
+      <c r="D5" s="5">
+        <v>27.62877348</v>
+      </c>
+      <c r="E5" s="5">
+        <v>14.633473840000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>480</v>
+      </c>
+      <c r="B6" s="5">
+        <v>41.910192049999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>25.657087619999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>13.609223500000001</v>
+      </c>
+      <c r="E6" s="5">
+        <v>7.1356138480000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>640</v>
+      </c>
+      <c r="B7" s="5">
+        <v>24.767100460000002</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15.34408913</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7.5504203060000004</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.966057578</v>
+      </c>
+      <c r="F7" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>960</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7.5679260680000002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5.3717028850000004</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3.0688118059999998</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.6134461680000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -7023,7 +11574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -7043,7 +11594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>256</v>
       </c>
@@ -7063,7 +11614,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>448</v>
       </c>
@@ -7083,7 +11634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>640</v>
       </c>
@@ -7103,7 +11654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>832</v>
       </c>
@@ -7123,7 +11674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1024</v>
       </c>

--- a/results/experiments/exp2/220530_results_res-fps.xlsx
+++ b/results/experiments/exp2/220530_results_res-fps.xlsx
@@ -8,27 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\PycharmProjects\yolov5\results\experiments\exp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BB39E7-9438-4A29-BBF3-E1AD052A56BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A2CF52-FDC5-4C6A-A8BD-65CDADCC52A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="899" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" tabRatio="899" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="220531_res_speed" sheetId="4" r:id="rId1"/>
     <sheet name="p5_models" sheetId="5" r:id="rId2"/>
-    <sheet name="220512_res_speed_old" sheetId="1" r:id="rId3"/>
-    <sheet name="p5_models_old" sheetId="2" r:id="rId4"/>
-    <sheet name="p6_models_old" sheetId="3" r:id="rId5"/>
+    <sheet name="p5_p6old_merged" sheetId="7" r:id="rId3"/>
+    <sheet name="220512_res_speed_old" sheetId="1" r:id="rId4"/>
+    <sheet name="p5_models_old" sheetId="2" r:id="rId5"/>
+    <sheet name="p6_models_old" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="25">
   <si>
     <t>model</t>
   </si>
@@ -592,7 +605,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -601,6 +614,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -646,13 +664,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -1278,6 +1290,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="12700" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1337,7 +1352,7 @@
         <c:spPr>
           <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
             <a:round/>
@@ -2261,6 +2276,1946 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[220530_results_res-fps.xlsx]p5_p6old_merged!PivotTable2</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="72000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="44000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="72000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="12700" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="44000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="44000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_p6old_merged!$B$5:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.08487937992599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.727817822269103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.597089669589799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.1506336869581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5266554937871799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3382-4AAF-9AB7-C66BC37DBC47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_p6old_merged!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71.959699834028399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.556354191837599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5102554137734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2304341890096193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5376159134009502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3382-4AAF-9AB7-C66BC37DBC47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="72000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_p6old_merged!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>41.912066731213201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.679607417666199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4780171395026596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0405919474061998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7247715981241698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3382-4AAF-9AB7-C66BC37DBC47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5l</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_p6old_merged!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.947833965104099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0517208127145796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9505020407322902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9139090863711701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4292487022798199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3382-4AAF-9AB7-C66BC37DBC47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5n6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_p6old_merged!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>89.080419478133507</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.993570826720202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.9837828343213</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.460165732513801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6514424554009093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3382-4AAF-9AB7-C66BC37DBC47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5s6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_p6old_merged!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>63.427131905105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.299567838387802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.9722223115627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3990764139838099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.55208660893787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-3382-4AAF-9AB7-C66BC37DBC47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5m6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="72000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_p6old_merged!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>36.2773048062135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.922507509837301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0839976620556602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.99677243519311</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6907323240430299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3382-4AAF-9AB7-C66BC37DBC47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov5l6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_p6old_merged!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.637580685947899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8406446022365701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.76411417849144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8325415606437201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4180128462414301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-3382-4AAF-9AB7-C66BC37DBC47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$J$3:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fps_target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:tint val="44000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>p5_p6old_merged!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>p5_p6old_merged!$J$5:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-3382-4AAF-9AB7-C66BC37DBC47}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="207364592"/>
+        <c:axId val="207370832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="207364592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207370832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="207370832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="207364592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3417,7 +5372,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4647,6 +6602,12 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4686,7 +6647,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6274,6 +8235,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6322,6 +8799,49 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>39333</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>631858</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94A49B4-397C-420B-94AF-81E2E0DA551B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>14286</xdr:rowOff>
@@ -6358,7 +8878,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7617,7 +10137,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8D284D4-77B2-4DD8-9D27-2F46C8C0DDC9}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C8D284D4-77B2-4DD8-9D27-2F46C8C0DDC9}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisCol" showAll="0">
@@ -7834,6 +10354,403 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8705770C-0D9B-44B0-80F1-96CB3B4162DD}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:J9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item h="1" m="1" x="9"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of FPS" fld="8" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="24">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
@@ -7915,7 +10832,7 @@
     <dataField name="Sum of FPS" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4" selected="0">
@@ -8002,7 +10919,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:F9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
@@ -8087,7 +11004,7 @@
     <dataField name="Sum of FPS" fld="8" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8569,21 +11486,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC48E676-1515-406E-A8F7-CAAF90619346}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8615,7 +11532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8647,7 +11564,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -8679,7 +11596,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -8711,7 +11628,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -8743,7 +11660,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -8775,7 +11692,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -8807,7 +11724,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -8839,7 +11756,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8871,7 +11788,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -8903,7 +11820,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -8935,7 +11852,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -8967,7 +11884,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -8999,7 +11916,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9031,7 +11948,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9063,7 +11980,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -9095,7 +12012,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -9127,7 +12044,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -9159,7 +12076,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -9191,7 +12108,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -9223,7 +12140,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -9255,7 +12172,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -9287,7 +12204,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -9319,7 +12236,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -9351,7 +12268,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -9383,7 +12300,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -9415,7 +12332,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -9447,7 +12364,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -9479,7 +12396,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -9511,7 +12428,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -9543,7 +12460,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -9575,7 +12492,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -9607,7 +12524,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -9639,7 +12556,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -9671,7 +12588,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -9703,7 +12620,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -9735,7 +12652,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -9767,7 +12684,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -9799,7 +12716,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -9831,7 +12748,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -9863,7 +12780,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -9895,7 +12812,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -9906,7 +12823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -9917,7 +12834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -9928,7 +12845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -9939,7 +12856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -9959,22 +12876,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE85E93-B8E5-4A1A-90EE-9312667461DB}">
   <dimension ref="A3:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -9982,7 +12899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -10002,7 +12919,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>256</v>
       </c>
@@ -10022,7 +12939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>448</v>
       </c>
@@ -10042,7 +12959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>640</v>
       </c>
@@ -10062,7 +12979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>832</v>
       </c>
@@ -10082,7 +12999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1024</v>
       </c>
@@ -10109,24 +13026,342 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E8F586-377C-4273-AC75-1DFD964DFAEC}">
+  <dimension ref="A3:O20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O9" si="0">O5-64</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>256</v>
+      </c>
+      <c r="B5" s="5">
+        <v>100.08487937992599</v>
+      </c>
+      <c r="C5" s="5">
+        <v>71.959699834028399</v>
+      </c>
+      <c r="D5" s="5">
+        <v>41.912066731213201</v>
+      </c>
+      <c r="E5" s="5">
+        <v>23.947833965104099</v>
+      </c>
+      <c r="F5" s="5">
+        <v>89.080419478133507</v>
+      </c>
+      <c r="G5" s="5">
+        <v>63.427131905105</v>
+      </c>
+      <c r="H5" s="5">
+        <v>36.2773048062135</v>
+      </c>
+      <c r="I5" s="5">
+        <v>20.637580685947899</v>
+      </c>
+      <c r="J5" s="5">
+        <v>30</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>448</v>
+      </c>
+      <c r="B6" s="5">
+        <v>44.727817822269103</v>
+      </c>
+      <c r="C6" s="5">
+        <v>30.556354191837599</v>
+      </c>
+      <c r="D6" s="5">
+        <v>15.679607417666199</v>
+      </c>
+      <c r="E6" s="5">
+        <v>8.0517208127145796</v>
+      </c>
+      <c r="F6" s="5">
+        <v>46.993570826720202</v>
+      </c>
+      <c r="G6" s="5">
+        <v>29.299567838387802</v>
+      </c>
+      <c r="H6" s="5">
+        <v>14.922507509837301</v>
+      </c>
+      <c r="I6" s="5">
+        <v>7.8406446022365701</v>
+      </c>
+      <c r="J6" s="5">
+        <v>30</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>640</v>
+      </c>
+      <c r="B7" s="5">
+        <v>24.597089669589799</v>
+      </c>
+      <c r="C7" s="5">
+        <v>15.5102554137734</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7.4780171395026596</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.9505020407322902</v>
+      </c>
+      <c r="F7" s="5">
+        <v>24.9837828343213</v>
+      </c>
+      <c r="G7" s="5">
+        <v>14.9722223115627</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7.0839976620556602</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3.76411417849144</v>
+      </c>
+      <c r="J7" s="5">
+        <v>30</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>832</v>
+      </c>
+      <c r="B8" s="5">
+        <v>14.1506336869581</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8.2304341890096193</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4.0405919474061998</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.9139090863711701</v>
+      </c>
+      <c r="F8" s="5">
+        <v>13.460165732513801</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8.3990764139838099</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3.99677243519311</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.8325415606437201</v>
+      </c>
+      <c r="J8" s="5">
+        <v>30</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1024</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8.5266554937871799</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5.5376159134009502</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.7247715981241698</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.4292487022798199</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8.6514424554009093</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5.55208660893787</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2.6907323240430299</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.4180128462414301</v>
+      </c>
+      <c r="J9" s="5">
+        <v>30</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f>O11-64</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="8">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="3">
+        <f>O11+64</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="8">
+        <f t="shared" ref="O13:O20" si="1">O12+64</f>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="3">
+        <f t="shared" si="1"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="8">
+        <f t="shared" si="1"/>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="3">
+        <f t="shared" si="1"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="3">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="3">
+        <f t="shared" si="1"/>
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="3">
+        <f t="shared" si="1"/>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="3">
+        <f t="shared" si="1"/>
+        <v>1216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="16.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10158,7 +13393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -10190,7 +13425,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -10222,7 +13457,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -10254,7 +13489,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -10286,7 +13521,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -10318,7 +13553,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -10350,7 +13585,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -10382,7 +13617,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -10414,7 +13649,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -10446,7 +13681,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -10478,7 +13713,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -10510,7 +13745,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -10542,7 +13777,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -10574,7 +13809,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -10606,7 +13841,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -10638,7 +13873,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -10670,7 +13905,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -10702,7 +13937,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -10734,7 +13969,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -10766,7 +14001,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -10798,7 +14033,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -10830,7 +14065,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -10862,7 +14097,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -10894,7 +14129,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -10926,7 +14161,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -10958,7 +14193,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -10990,7 +14225,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -11022,7 +14257,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -11054,7 +14289,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -11086,7 +14321,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -11118,7 +14353,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -11150,7 +14385,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -11182,7 +14417,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -11214,7 +14449,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -11246,7 +14481,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -11278,7 +14513,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -11310,7 +14545,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -11321,7 +14556,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -11332,7 +14567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -11343,7 +14578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -11354,7 +14589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -11365,7 +14600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -11376,7 +14611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -11387,7 +14622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -11398,7 +14633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -11415,7 +14650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:F8"/>
   <sheetViews>
@@ -11423,18 +14658,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -11442,7 +14677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -11462,7 +14697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>320</v>
       </c>
@@ -11482,7 +14717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>480</v>
       </c>
@@ -11502,7 +14737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>640</v>
       </c>
@@ -11522,7 +14757,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>960</v>
       </c>
@@ -11548,25 +14783,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -11574,7 +14809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -11594,7 +14829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>256</v>
       </c>
@@ -11614,7 +14849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>448</v>
       </c>
@@ -11634,7 +14869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>640</v>
       </c>
@@ -11654,7 +14889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>832</v>
       </c>
@@ -11674,7 +14909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1024</v>
       </c>

--- a/results/experiments/exp2/220530_results_res-fps.xlsx
+++ b/results/experiments/exp2/220530_results_res-fps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\PycharmProjects\yolov5\results\experiments\exp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A2CF52-FDC5-4C6A-A8BD-65CDADCC52A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD4D24F-3A55-46C9-A59D-1EA9FD41B190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" tabRatio="899" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="899" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="220531_res_speed" sheetId="4" r:id="rId1"/>
@@ -664,7 +664,13 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -693,7 +699,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1124,7 +1130,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1180,7 +1186,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1236,7 +1242,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1352,7 +1358,7 @@
         <c:spPr>
           <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
             <a:round/>
@@ -2278,7 +2284,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2692,9 +2698,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="86000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2750,9 +2754,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="72000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2808,9 +2810,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="58000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2926,9 +2926,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="44000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2984,9 +2982,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="58000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3042,9 +3038,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="72000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3100,9 +3094,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:shade val="86000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3158,9 +3150,7 @@
         <c:spPr>
           <a:ln w="12700" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:tint val="44000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:prstDash val="sysDash"/>
             <a:round/>
@@ -4218,7 +4208,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4296,7 +4286,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4352,7 +4342,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4408,7 +4398,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5375,7 +5365,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5453,7 +5443,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5509,7 +5499,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5565,7 +5555,7 @@
         <c:spPr>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -10218,7 +10208,7 @@
     <dataField name="Sum of FPS" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4" selected="0">
@@ -10446,9 +10436,21 @@
   <dataFields count="1">
     <dataField name="Sum of FPS" fld="8" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="2">
+  <formats count="2">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="2" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <chartFormats count="24">
@@ -10832,7 +10834,7 @@
     <dataField name="Sum of FPS" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4" selected="0">
@@ -11004,7 +11006,7 @@
     <dataField name="Sum of FPS" fld="8" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -11486,18 +11488,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC48E676-1515-406E-A8F7-CAAF90619346}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -12880,14 +12882,14 @@
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13030,21 +13032,21 @@
   <dimension ref="A3:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -13351,14 +13353,14 @@
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -14658,14 +14660,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14791,14 +14793,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
